--- a/working_folder/instruments website currency.xlsx
+++ b/working_folder/instruments website currency.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20120" windowHeight="8500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Symbol</t>
   </si>
@@ -162,15 +157,6 @@
   </si>
   <si>
     <t>usdzar</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>pair</t>
   </si>
 </sst>
 </file>
@@ -222,68 +208,68 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,10 +277,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,7 +288,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -661,26 +647,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -690,7 +676,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -711,7 +697,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -731,7 +717,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +737,7 @@
         <v>-0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -771,7 +757,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -792,7 +778,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -813,7 +799,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -834,7 +820,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -855,7 +841,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="11"/>
       <c r="C11" s="6"/>
@@ -864,7 +850,7 @@
       <c r="F11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="16"/>
       <c r="C12" s="14" t="s">
@@ -875,7 +861,7 @@
       <c r="F12" s="15"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
@@ -896,7 +882,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -917,7 +903,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
@@ -938,7 +924,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -959,7 +945,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -980,7 +966,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +987,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1022,7 +1008,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1043,7 +1029,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1050,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1071,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1106,7 +1092,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1113,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1134,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1155,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1176,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1197,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1217,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1237,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1271,7 +1257,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1277,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1297,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1317,7 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
@@ -1339,7 +1325,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="11"/>
       <c r="C36" s="7"/>
@@ -1347,7 +1333,7 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="16"/>
       <c r="C37" s="14" t="s">
@@ -1357,7 +1343,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>0</v>
       </c>
@@ -1377,27 +1363,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>10000</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="C39" s="2">
+        <v>25</v>
+      </c>
+      <c r="D39" s="2">
+        <v>25</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1417,67 +1403,67 @@
         <v>-1.57</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>10000</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>10000</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="C42" s="2">
+        <v>50</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-8</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>10000</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-1.6</v>
+      </c>
+      <c r="F43" s="2">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -1497,27 +1483,27 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>10000</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="C45" s="2">
+        <v>75</v>
+      </c>
+      <c r="D45" s="2">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-12</v>
+      </c>
+      <c r="F45" s="2">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1523,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -1557,27 +1543,27 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>10000</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="C48" s="2">
+        <v>120</v>
+      </c>
+      <c r="D48" s="2">
+        <v>120</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-11.15</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="11"/>
       <c r="C49" s="6"/>
@@ -1585,7 +1571,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="11"/>
       <c r="C50" s="6"/>
@@ -1593,7 +1579,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="11"/>
       <c r="C51" s="6"/>
@@ -1601,7 +1587,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="11"/>
       <c r="C52" s="6"/>
@@ -1609,7 +1595,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="11"/>
       <c r="C53" s="6"/>
@@ -1617,7 +1603,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="11"/>
       <c r="C54" s="6"/>
@@ -1625,7 +1611,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="11"/>
       <c r="C55" s="6"/>
@@ -1635,11 +1621,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1649,14 +1631,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1666,13 +1643,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>